--- a/forms/app/home_visit.xlsx
+++ b/forms/app/home_visit.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -238,6 +238,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">found_someone</t>
     </r>
@@ -250,6 +251,44 @@
   </si>
   <si>
     <t xml:space="preserve">Avez vous trouver quelqu’un dans le ménage ?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nunito Sans"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. != '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yes_found_sick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nunito Sans"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">You can only submit this form if there is no case in family. Try to choose another form to manage case founded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous ne pouvez soumettre ce formulaire que quand il n’y a pas de cas dans le menage. Veuillez sortir et choisir le formulaire qui peux gérer le cas trouvé!</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
@@ -446,12 +485,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Nunito Sans"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -570,7 +610,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -684,6 +724,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -801,8 +845,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -813,7 +857,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="16.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="18.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="38.12"/>
@@ -4301,7 +4345,7 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="13" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="13" customFormat="true" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -4324,10 +4368,17 @@
         <v>65</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="0"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4340,16 +4391,16 @@
     </row>
     <row r="18" s="13" customFormat="true" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -5462,144 +5513,144 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="24.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="25.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="22.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="29" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="20.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="24.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="29" width="25.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="29" width="22.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="30" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.82"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="30" t="s">
+    <row r="1" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>94</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>97</v>
+      <c r="A9" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>100</v>
+      <c r="A10" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5626,52 +5677,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="33" width="42.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="33" width="31.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="33" width="14.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="33" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="33" width="24.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="33" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="42.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="31.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="14.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="24.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="34" width="10.29"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="true" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="34" t="s">
+    <row r="1" s="32" customFormat="true" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>106</v>
       </c>
+      <c r="D1" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" s="29" customFormat="true" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="36" t="s">
+    <row r="2" s="30" customFormat="true" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="B2" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
